--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.022621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.022621.xlsx_with_dialog_acts.xlsx
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1063,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3163,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4049,12 +4049,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5055,12 +5055,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5223,12 +5223,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6399,12 +6399,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6441,12 +6441,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6567,12 +6567,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6777,12 +6777,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7071,12 +7071,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7155,12 +7155,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7323,12 +7323,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7407,12 +7407,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7995,12 +7995,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8079,12 +8079,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9003,12 +9003,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9087,12 +9087,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9549,12 +9549,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9591,12 +9591,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9633,12 +9633,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9675,12 +9675,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9801,12 +9801,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10305,12 +10305,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10347,12 +10347,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10431,12 +10431,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10519,12 +10519,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10561,12 +10561,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10813,12 +10813,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10897,12 +10897,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11023,12 +11023,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11191,12 +11191,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11653,12 +11653,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11695,12 +11695,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11821,12 +11821,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11947,12 +11947,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12493,12 +12493,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12535,12 +12535,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12661,12 +12661,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12745,12 +12745,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13397,12 +13397,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13641,12 +13641,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14001,12 +14001,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14041,12 +14041,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14121,12 +14121,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
